--- a/CFB_Week2_FirstnameLastname.xlsx
+++ b/CFB_Week2_FirstnameLastname.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="145">
   <si>
     <t xml:space="preserve">Matchup</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">TCU</t>
   </si>
   <si>
-    <t xml:space="preserve">-1550</t>
+    <t xml:space="preserve">-1610</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">SMU</t>
   </si>
   <si>
-    <t xml:space="preserve">+1014</t>
+    <t xml:space="preserve">+1042</t>
   </si>
   <si>
     <t xml:space="preserve">Liberty</t>
@@ -70,13 +70,13 @@
     <t xml:space="preserve">UAB</t>
   </si>
   <si>
-    <t xml:space="preserve">-381</t>
+    <t xml:space="preserve">-385</t>
   </si>
   <si>
     <t xml:space="preserve">Coastal Carolina</t>
   </si>
   <si>
-    <t xml:space="preserve">+322</t>
+    <t xml:space="preserve">+325</t>
   </si>
   <si>
     <t xml:space="preserve">Georgia Tech</t>
@@ -130,37 +130,37 @@
     <t xml:space="preserve">Mississippi State</t>
   </si>
   <si>
-    <t xml:space="preserve">-362</t>
+    <t xml:space="preserve">-350</t>
   </si>
   <si>
     <t xml:space="preserve">Kansas State</t>
   </si>
   <si>
-    <t xml:space="preserve">+307</t>
+    <t xml:space="preserve">+298</t>
   </si>
   <si>
     <t xml:space="preserve">Arizona</t>
   </si>
   <si>
-    <t xml:space="preserve">+177</t>
+    <t xml:space="preserve">+163</t>
   </si>
   <si>
     <t xml:space="preserve">Houston</t>
   </si>
   <si>
-    <t xml:space="preserve">-201</t>
+    <t xml:space="preserve">-184</t>
   </si>
   <si>
     <t xml:space="preserve">Nevada</t>
   </si>
   <si>
-    <t xml:space="preserve">+290</t>
+    <t xml:space="preserve">+283</t>
   </si>
   <si>
     <t xml:space="preserve">Vanderbilt</t>
   </si>
   <si>
-    <t xml:space="preserve">-340</t>
+    <t xml:space="preserve">-331</t>
   </si>
   <si>
     <t xml:space="preserve">New Mexico State</t>
@@ -178,37 +178,37 @@
     <t xml:space="preserve">Kansas</t>
   </si>
   <si>
-    <t xml:space="preserve">+166</t>
+    <t xml:space="preserve">+180</t>
   </si>
   <si>
     <t xml:space="preserve">Central Michigan</t>
   </si>
   <si>
-    <t xml:space="preserve">-188</t>
+    <t xml:space="preserve">-205</t>
   </si>
   <si>
     <t xml:space="preserve">UTEP</t>
   </si>
   <si>
-    <t xml:space="preserve">+1059</t>
+    <t xml:space="preserve">+1166</t>
   </si>
   <si>
     <t xml:space="preserve">UNLV</t>
   </si>
   <si>
-    <t xml:space="preserve">-1650</t>
+    <t xml:space="preserve">-1905</t>
   </si>
   <si>
     <t xml:space="preserve">Memphis</t>
   </si>
   <si>
-    <t xml:space="preserve">-271</t>
+    <t xml:space="preserve">-272</t>
   </si>
   <si>
     <t xml:space="preserve">Navy</t>
   </si>
   <si>
-    <t xml:space="preserve">+235</t>
+    <t xml:space="preserve">+236</t>
   </si>
   <si>
     <t xml:space="preserve">North Carolina</t>
@@ -238,13 +238,13 @@
     <t xml:space="preserve">Georgia</t>
   </si>
   <si>
-    <t xml:space="preserve">-395</t>
+    <t xml:space="preserve">-383</t>
   </si>
   <si>
     <t xml:space="preserve">South Carolina</t>
   </si>
   <si>
-    <t xml:space="preserve">+333</t>
+    <t xml:space="preserve">+324</t>
   </si>
   <si>
     <t xml:space="preserve">Baylor</t>
@@ -262,37 +262,31 @@
     <t xml:space="preserve">Colorado</t>
   </si>
   <si>
+    <t xml:space="preserve">Nebraska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UL Monroe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern Miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iowa State</t>
+  </si>
+  <si>
     <t xml:space="preserve">+167</t>
   </si>
   <si>
-    <t xml:space="preserve">Nebraska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UL Monroe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southern Miss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iowa State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+163</t>
-  </si>
-  <si>
     <t xml:space="preserve">Iowa</t>
   </si>
   <si>
-    <t xml:space="preserve">-185</t>
+    <t xml:space="preserve">-189</t>
   </si>
   <si>
     <t xml:space="preserve">Maryland</t>
@@ -322,25 +316,25 @@
     <t xml:space="preserve">Wyoming</t>
   </si>
   <si>
-    <t xml:space="preserve">+689</t>
+    <t xml:space="preserve">+737</t>
   </si>
   <si>
     <t xml:space="preserve">Missouri</t>
   </si>
   <si>
-    <t xml:space="preserve">-925</t>
+    <t xml:space="preserve">-1007</t>
   </si>
   <si>
     <t xml:space="preserve">Virginia</t>
   </si>
   <si>
-    <t xml:space="preserve">+210</t>
+    <t xml:space="preserve">+213</t>
   </si>
   <si>
     <t xml:space="preserve">Indiana</t>
   </si>
   <si>
-    <t xml:space="preserve">-241</t>
+    <t xml:space="preserve">-245</t>
   </si>
   <si>
     <t xml:space="preserve">Kentucky</t>
@@ -358,25 +352,25 @@
     <t xml:space="preserve">Utah</t>
   </si>
   <si>
-    <t xml:space="preserve">-450</t>
+    <t xml:space="preserve">-380</t>
   </si>
   <si>
     <t xml:space="preserve">Northern Illinois</t>
   </si>
   <si>
-    <t xml:space="preserve">+374</t>
+    <t xml:space="preserve">+321</t>
   </si>
   <si>
     <t xml:space="preserve">Arkansas</t>
   </si>
   <si>
-    <t xml:space="preserve">-506</t>
+    <t xml:space="preserve">-545</t>
   </si>
   <si>
     <t xml:space="preserve">Colorado State</t>
   </si>
   <si>
-    <t xml:space="preserve">+415</t>
+    <t xml:space="preserve">+443</t>
   </si>
   <si>
     <t xml:space="preserve">Cincinnati</t>
@@ -406,13 +400,13 @@
     <t xml:space="preserve">Penn State</t>
   </si>
   <si>
-    <t xml:space="preserve">-330</t>
+    <t xml:space="preserve">-364</t>
   </si>
   <si>
     <t xml:space="preserve">Pittsburgh</t>
   </si>
   <si>
-    <t xml:space="preserve">+282</t>
+    <t xml:space="preserve">+308</t>
   </si>
   <si>
     <t xml:space="preserve">USC</t>
@@ -442,25 +436,25 @@
     <t xml:space="preserve">Michigan State</t>
   </si>
   <si>
-    <t xml:space="preserve">-220</t>
+    <t xml:space="preserve">-212</t>
   </si>
   <si>
     <t xml:space="preserve">Arizona State</t>
   </si>
   <si>
-    <t xml:space="preserve">+193</t>
+    <t xml:space="preserve">+186</t>
   </si>
   <si>
     <t xml:space="preserve">Rice</t>
   </si>
   <si>
-    <t xml:space="preserve">+591</t>
+    <t xml:space="preserve">+603</t>
   </si>
   <si>
     <t xml:space="preserve">Hawaii</t>
   </si>
   <si>
-    <t xml:space="preserve">-765</t>
+    <t xml:space="preserve">-783</t>
   </si>
 </sst>
 </file>
@@ -512,8 +506,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -551,17 +545,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -572,20 +562,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -600,7 +582,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -622,7 +604,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -667,90 +649,87 @@
   </sheetPr>
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F60" activeCellId="0" sqref="F60"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A71" activeCellId="0" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.4615384615385"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4898785425101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.6194331983806"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="8.2995951417004"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.6194331983806"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="5.10526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.6194331983806"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.51417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.2995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.51417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.17004048582996"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.51417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.0607287449393"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.6113360323887"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="n">
+      <c r="J1" s="3" t="n">
         <f aca="false">SUM(C2:C100) + SUM(E2:E100) + SUM(G2:G100)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="n">
-        <v>-21.5</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="n">
+        <v>-22.5</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8" t="n">
+      <c r="C3" s="5"/>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4" t="n">
         <v>58.5</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -759,10 +738,10 @@
       <c r="B4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="n">
+      <c r="D4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <v>58.5</v>
       </c>
     </row>
@@ -773,48 +752,46 @@
       <c r="B5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="0" t="n">
         <v>-9.5</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="F5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8" t="n">
+      <c r="C6" s="5"/>
+      <c r="D6" s="4" t="n">
         <v>-10</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8" t="n">
+      <c r="C7" s="5"/>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -823,10 +800,10 @@
       <c r="B8" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="0" t="n">
         <v>-3</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -837,48 +814,46 @@
       <c r="B9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="10" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="D9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8" t="n">
+      <c r="C10" s="5"/>
+      <c r="D10" s="4" t="n">
         <v>-14</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8" t="n">
-        <v>50</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -887,10 +862,10 @@
       <c r="B12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="2" t="n">
+      <c r="D12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <v>55.5</v>
       </c>
     </row>
@@ -901,48 +876,46 @@
       <c r="B13" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="0" t="n">
         <v>-16</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="F13" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8" t="n">
-        <v>67</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4" t="n">
+        <v>69</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8" t="n">
+      <c r="C15" s="5"/>
+      <c r="D15" s="4" t="n">
         <v>-9.5</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -951,10 +924,10 @@
       <c r="B16" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="0" t="n">
         <v>-9.5</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -965,48 +938,46 @@
       <c r="B17" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="2" t="n">
+      <c r="D17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="0" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="18" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+    <row r="18" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8" t="n">
+      <c r="C18" s="5"/>
+      <c r="D18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4" t="n">
         <v>72</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -1015,10 +986,10 @@
       <c r="B20" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="2" t="n">
+      <c r="D20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="0" t="n">
         <v>63</v>
       </c>
     </row>
@@ -1029,48 +1000,46 @@
       <c r="B21" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="0" t="n">
         <v>-9</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="F21" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8" t="n">
+      <c r="C22" s="5"/>
+      <c r="D22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="4" t="n">
         <v>62</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8" t="n">
+      <c r="C23" s="5"/>
+      <c r="D23" s="4" t="n">
         <v>-24</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -1079,10 +1048,10 @@
       <c r="B24" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="2" t="n">
+      <c r="D24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="0" t="n">
         <v>51.5</v>
       </c>
     </row>
@@ -1093,48 +1062,46 @@
       <c r="B25" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="D25" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8" t="n">
-        <v>55</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="4" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8" t="n">
+      <c r="C27" s="5"/>
+      <c r="D27" s="4" t="n">
         <v>-23</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -1143,10 +1110,10 @@
       <c r="B28" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="2" t="n">
-        <v>-6.5</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="D28" s="0" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1157,48 +1124,46 @@
       <c r="B29" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
+      <c r="D29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8" t="n">
+      <c r="C30" s="5"/>
+      <c r="D30" s="4" t="n">
         <v>-16.5</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="7"/>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+      <c r="E30" s="5"/>
+      <c r="F30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="8" t="n">
+      <c r="C31" s="5"/>
+      <c r="D31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -1207,11 +1172,11 @@
       <c r="B32" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="2" t="n">
-        <v>51.5</v>
+      <c r="D32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>50.5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1221,48 +1186,46 @@
       <c r="B33" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="0" t="n">
         <v>-4.5</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+      <c r="F33" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8" t="n">
+      <c r="C34" s="5"/>
+      <c r="D34" s="4" t="n">
         <v>-10</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="J34" s="7"/>
-    </row>
-    <row r="35" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
+      <c r="E34" s="5"/>
+      <c r="F34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8" t="n">
-        <v>55</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="J35" s="7"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="4" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="G35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -1271,10 +1234,10 @@
       <c r="B36" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" s="0" t="n">
         <v>-15</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1285,560 +1248,542 @@
       <c r="B37" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="2" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
+      <c r="D37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="38" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="4" t="n">
+        <v>65</v>
+      </c>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8" t="n">
-        <v>66</v>
-      </c>
-      <c r="G38" s="7"/>
-      <c r="J38" s="7"/>
-    </row>
-    <row r="39" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8" t="n">
+      <c r="B39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="4" t="n">
         <v>-4</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="7"/>
-      <c r="J39" s="7"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="0" t="n">
         <v>68</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B42" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="2" t="n">
-        <v>-5.5</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
+      <c r="C42" s="5"/>
+      <c r="D42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B43" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8" t="n">
-        <v>47</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="J42" s="7"/>
-    </row>
-    <row r="43" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8" t="n">
+      <c r="C43" s="5"/>
+      <c r="D43" s="4" t="n">
         <v>-4</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="7"/>
-      <c r="J43" s="7"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="D44" s="0" t="n">
         <v>-16</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="46" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B46" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="2" t="n">
-        <v>65.5</v>
-      </c>
-    </row>
-    <row r="46" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
+      <c r="C46" s="5"/>
+      <c r="D46" s="4" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B47" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8" t="n">
-        <v>-12</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="7"/>
-      <c r="J46" s="7"/>
-    </row>
-    <row r="47" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8" t="n">
+      <c r="C47" s="5"/>
+      <c r="D47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="4" t="n">
         <v>54.5</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="J47" s="7"/>
+      <c r="G47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="0" t="n">
         <v>52</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>-18.5</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B50" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>-18.5</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="s">
+      <c r="C50" s="5"/>
+      <c r="D50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="4" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B51" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="8" t="n">
-        <v>51.5</v>
-      </c>
-      <c r="G50" s="7"/>
-      <c r="J50" s="7"/>
-    </row>
-    <row r="51" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="8" t="n">
+      <c r="C51" s="5"/>
+      <c r="D51" s="4" t="n">
         <v>-6.5</v>
       </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="7"/>
-      <c r="J51" s="7"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="0" t="n">
         <v>49</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B54" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="2" t="n">
-        <v>-13.5</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="s">
+      <c r="C54" s="5"/>
+      <c r="D54" s="4" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B55" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="8" t="n">
-        <v>-11.5</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="7"/>
-      <c r="J54" s="7"/>
-    </row>
-    <row r="55" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="8" t="n">
+      <c r="C55" s="5"/>
+      <c r="D55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="4" t="n">
         <v>47.5</v>
       </c>
-      <c r="G55" s="7"/>
-      <c r="J55" s="7"/>
+      <c r="G55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D56" s="2" t="n">
-        <v>-13.5</v>
-      </c>
-      <c r="F56" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>-14</v>
+      </c>
+      <c r="F56" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B58" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="2" t="n">
-        <v>69.5</v>
-      </c>
-    </row>
-    <row r="58" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
+      <c r="C58" s="5"/>
+      <c r="D58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="4" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B59" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="8" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="G58" s="7"/>
-      <c r="J58" s="7"/>
-    </row>
-    <row r="59" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="8" t="n">
+      <c r="C59" s="5"/>
+      <c r="D59" s="4" t="n">
         <v>-0.5</v>
       </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="7"/>
-      <c r="J59" s="7"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="2" t="n">
-        <v>61</v>
+        <v>122</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>61.5</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>-22.5</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B62" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D61" s="2" t="n">
-        <v>-22.5</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="s">
+      <c r="C62" s="5"/>
+      <c r="D62" s="4" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B63" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="8" t="n">
-        <v>-8.5</v>
-      </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="7"/>
-      <c r="J62" s="7"/>
-    </row>
-    <row r="63" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="8" t="n">
+      <c r="C63" s="5"/>
+      <c r="D63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="4" t="n">
         <v>56</v>
       </c>
-      <c r="G63" s="7"/>
-      <c r="J63" s="7"/>
+      <c r="G63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="0" t="n">
         <v>56.5</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B66" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D65" s="2" t="n">
-        <v>-5.5</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6" t="s">
+      <c r="C66" s="5"/>
+      <c r="D66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="4" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B67" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="8" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="G66" s="7"/>
-      <c r="J66" s="7"/>
-    </row>
-    <row r="67" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="8" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G67" s="7"/>
-      <c r="J67" s="7"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="D68" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="D68" s="0" t="n">
         <v>-5.5</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B70" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="2" t="n">
-        <v>55.5</v>
-      </c>
-    </row>
-    <row r="70" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6" t="s">
+      <c r="C70" s="5"/>
+      <c r="D70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="4" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B71" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="8" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="G70" s="7"/>
-      <c r="J70" s="7"/>
-    </row>
-    <row r="71" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="8" t="n">
+      <c r="C71" s="5"/>
+      <c r="D71" s="4" t="n">
         <v>-17</v>
       </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G71" s="7"/>
-      <c r="J71" s="7"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
